--- a/res/Levels/19/siranga.xlsx
+++ b/res/Levels/19/siranga.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13753\Dropbox\Share\Levels\Level 20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dallas\Dropbox\Share\Levels\19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="siranga" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="3">
   <si>
     <t>red tunnel</t>
   </si>
@@ -1139,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1301,51 +1301,51 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>IF(Design!A4="dirt", 1, IF(Design!A4="sapphire", 2,  IF(Design!A4="ruby", 3,  IF(Design!A4="amethyst", 4,  IF(Design!A4="green garnet", 5,  IF(Design!A4="sand", 6,  IF(Design!A4="red tunnel", 7,  IF(Design!A4="blue tunnel", 8,  IF(Design!A4="green tunnel", 9,  IF(Design!A4="root", 10, IF(Design!A4=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <f>IF(Design!B4="dirt", 1, IF(Design!B4="sapphire", 2,  IF(Design!B4="ruby", 3,  IF(Design!B4="amethyst", 4,  IF(Design!B4="green garnet", 5,  IF(Design!B4="sand", 6,  IF(Design!B4="red tunnel", 7,  IF(Design!B4="blue tunnel", 8,  IF(Design!B4="green tunnel", 9,  IF(Design!B4="root", 10, IF(Design!B4=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f>IF(Design!C4="dirt", 1, IF(Design!C4="sapphire", 2,  IF(Design!C4="ruby", 3,  IF(Design!C4="amethyst", 4,  IF(Design!C4="green garnet", 5,  IF(Design!C4="sand", 6,  IF(Design!C4="red tunnel", 7,  IF(Design!C4="blue tunnel", 8,  IF(Design!C4="green tunnel", 9,  IF(Design!C4="root", 10, IF(Design!C4=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f>IF(Design!D4="dirt", 1, IF(Design!D4="sapphire", 2,  IF(Design!D4="ruby", 3,  IF(Design!D4="amethyst", 4,  IF(Design!D4="green garnet", 5,  IF(Design!D4="sand", 6,  IF(Design!D4="red tunnel", 7,  IF(Design!D4="blue tunnel", 8,  IF(Design!D4="green tunnel", 9,  IF(Design!D4="root", 10, IF(Design!D4=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f>IF(Design!E4="dirt", 1, IF(Design!E4="sapphire", 2,  IF(Design!E4="ruby", 3,  IF(Design!E4="amethyst", 4,  IF(Design!E4="green garnet", 5,  IF(Design!E4="sand", 6,  IF(Design!E4="red tunnel", 7,  IF(Design!E4="blue tunnel", 8,  IF(Design!E4="green tunnel", 9,  IF(Design!E4="root", 10, IF(Design!E4=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f>IF(Design!F4="dirt", 1, IF(Design!F4="sapphire", 2,  IF(Design!F4="ruby", 3,  IF(Design!F4="amethyst", 4,  IF(Design!F4="green garnet", 5,  IF(Design!F4="sand", 6,  IF(Design!F4="red tunnel", 7,  IF(Design!F4="blue tunnel", 8,  IF(Design!F4="green tunnel", 9,  IF(Design!F4="root", 10, IF(Design!F4=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f>IF(Design!G4="dirt", 1, IF(Design!G4="sapphire", 2,  IF(Design!G4="ruby", 3,  IF(Design!G4="amethyst", 4,  IF(Design!G4="green garnet", 5,  IF(Design!G4="sand", 6,  IF(Design!G4="red tunnel", 7,  IF(Design!G4="blue tunnel", 8,  IF(Design!G4="green tunnel", 9,  IF(Design!G4="root", 10, IF(Design!G4=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f>IF(Design!H4="dirt", 1, IF(Design!H4="sapphire", 2,  IF(Design!H4="ruby", 3,  IF(Design!H4="amethyst", 4,  IF(Design!H4="green garnet", 5,  IF(Design!H4="sand", 6,  IF(Design!H4="red tunnel", 7,  IF(Design!H4="blue tunnel", 8,  IF(Design!H4="green tunnel", 9,  IF(Design!H4="root", 10, IF(Design!H4=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <f>IF(Design!I4="dirt", 1, IF(Design!I4="sapphire", 2,  IF(Design!I4="ruby", 3,  IF(Design!I4="amethyst", 4,  IF(Design!I4="green garnet", 5,  IF(Design!I4="sand", 6,  IF(Design!I4="red tunnel", 7,  IF(Design!I4="blue tunnel", 8,  IF(Design!I4="green tunnel", 9,  IF(Design!I4="root", 10, IF(Design!I4=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <f>IF(Design!J4="dirt", 1, IF(Design!J4="sapphire", 2,  IF(Design!J4="ruby", 3,  IF(Design!J4="amethyst", 4,  IF(Design!J4="green garnet", 5,  IF(Design!J4="sand", 6,  IF(Design!J4="red tunnel", 7,  IF(Design!J4="blue tunnel", 8,  IF(Design!J4="green tunnel", 9,  IF(Design!J4="root", 10, IF(Design!J4=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <f>IF(Design!K4="dirt", 1, IF(Design!K4="sapphire", 2,  IF(Design!K4="ruby", 3,  IF(Design!K4="amethyst", 4,  IF(Design!K4="green garnet", 5,  IF(Design!K4="sand", 6,  IF(Design!K4="red tunnel", 7,  IF(Design!K4="blue tunnel", 8,  IF(Design!K4="green tunnel", 9,  IF(Design!K4="root", 10, IF(Design!K4=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <f>IF(Design!L4="dirt", 1, IF(Design!L4="sapphire", 2,  IF(Design!L4="ruby", 3,  IF(Design!L4="amethyst", 4,  IF(Design!L4="green garnet", 5,  IF(Design!L4="sand", 6,  IF(Design!L4="red tunnel", 7,  IF(Design!L4="blue tunnel", 8,  IF(Design!L4="green tunnel", 9,  IF(Design!L4="root", 10, IF(Design!L4=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1757,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,42 +1809,18 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
